--- a/data-struuture/double-linked-list/map/double-linked-list.xlsx
+++ b/data-struuture/double-linked-list/map/double-linked-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="7515"/>
+    <workbookView windowWidth="24345" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,9 +32,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -55,10 +62,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -70,18 +116,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -109,27 +148,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -143,25 +161,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,16 +175,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +186,84 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -210,13 +281,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,145 +359,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,6 +375,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -389,6 +388,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -403,15 +426,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,9 +447,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,28 +480,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,156 +493,159 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3119,6 +3121,2362 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="矩形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="10277475"/>
+          <a:ext cx="1438275" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>head</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>prev = null</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>next</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="矩形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="10287000"/>
+          <a:ext cx="1438275" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>prev</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>next</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="矩形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4600575" y="10296525"/>
+          <a:ext cx="1438275" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>prev</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>next</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="矩形 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="10315575"/>
+          <a:ext cx="1438275" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>prev</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>next = null</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="肘形连接符 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1066800" y="10429875"/>
+          <a:ext cx="1685925" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50019"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="肘形连接符 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3267075" y="10448925"/>
+          <a:ext cx="1771650" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50036"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="肘形连接符 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5553075" y="10477500"/>
+          <a:ext cx="1790700" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50035"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="肘形连接符 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5572125" y="10467975"/>
+          <a:ext cx="1447800" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49956"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="肘形连接符 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3314700" y="10429875"/>
+          <a:ext cx="1447800" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49956"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>399415</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>675640</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="肘形连接符 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1085215" y="10429240"/>
+          <a:ext cx="1647825" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49981"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="矩形 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="15420975"/>
+          <a:ext cx="1438275" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>head</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>prev = null</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>next</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矩形 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="15430500"/>
+          <a:ext cx="1438275" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>prev</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>next</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="矩形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4600575" y="15440025"/>
+          <a:ext cx="1438275" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>prev</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>next</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矩形 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="15459075"/>
+          <a:ext cx="1438275" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>prev</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>next = null</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="肘形连接符 42"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1066800" y="15573375"/>
+          <a:ext cx="1685925" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50019"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="肘形连接符 43"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3267075" y="15592425"/>
+          <a:ext cx="1771650" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50036"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="肘形连接符 44"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5553075" y="15621000"/>
+          <a:ext cx="1790700" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50035"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="肘形连接符 45"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5572125" y="15611475"/>
+          <a:ext cx="1447800" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49956"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="肘形连接符 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3314700" y="15573375"/>
+          <a:ext cx="1447800" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49956"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>399415</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>675640</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="肘形连接符 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1085215" y="15572740"/>
+          <a:ext cx="1647825" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49981"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="圆角矩形标注 48"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="12296775"/>
+          <a:ext cx="2323465" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11271"/>
+            <a:gd name="adj2" fmla="val -65919"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>待删除节点，节点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ID = 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>待删除节点的前一个节点的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>next</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>指向待删除节点的下一个节点</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>待删除节点的下一个节点的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>prev</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>指向待删除节点的上一个</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="肘形连接符 49"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3124200" y="10372725"/>
+          <a:ext cx="3781425" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50008"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="肘形连接符 50"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3152775" y="10448925"/>
+          <a:ext cx="4038600" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49984"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直接箭头连接符 51"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1304925" y="12096750"/>
+          <a:ext cx="1581150" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>67945</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="文本框 52"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="12734925"/>
+          <a:ext cx="1514475" cy="363220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>临时指针 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>temp</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3409,10 +5767,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:Q56"/>
+  <dimension ref="A2:Q119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4404,6 +6762,1165 @@
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+    </row>
+    <row r="88" spans="1:17">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+    </row>
+    <row r="89" spans="1:17">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+    </row>
+    <row r="90" spans="1:17">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+    </row>
+    <row r="91" spans="1:17">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="2"/>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="2"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+    </row>
+    <row r="100" spans="1:17">
+      <c r="A100" s="2"/>
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+    </row>
+    <row r="101" spans="1:17">
+      <c r="A101" s="2"/>
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+    </row>
+    <row r="102" spans="1:17">
+      <c r="A102" s="2"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+    </row>
+    <row r="103" spans="1:17">
+      <c r="A103" s="2"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+    </row>
+    <row r="104" spans="1:17">
+      <c r="A104" s="2"/>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+    </row>
+    <row r="105" spans="1:17">
+      <c r="A105" s="2"/>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+    </row>
+    <row r="106" spans="1:17">
+      <c r="A106" s="2"/>
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+    </row>
+    <row r="107" spans="1:17">
+      <c r="A107" s="2"/>
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+    </row>
+    <row r="108" spans="1:17">
+      <c r="A108" s="2"/>
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+    </row>
+    <row r="109" spans="1:17">
+      <c r="A109" s="2"/>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+    </row>
+    <row r="110" spans="1:17">
+      <c r="A110" s="2"/>
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+    </row>
+    <row r="111" spans="1:17">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+    </row>
+    <row r="112" spans="1:17">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+    </row>
+    <row r="113" spans="1:17">
+      <c r="A113" s="2"/>
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+    </row>
+    <row r="114" spans="1:17">
+      <c r="A114" s="2"/>
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+    </row>
+    <row r="115" spans="1:17">
+      <c r="A115" s="2"/>
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+    </row>
+    <row r="116" spans="1:17">
+      <c r="A116" s="2"/>
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+    </row>
+    <row r="117" spans="1:17">
+      <c r="A117" s="2"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+    </row>
+    <row r="118" spans="1:17">
+      <c r="A118" s="2"/>
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+    </row>
+    <row r="119" spans="1:17">
+      <c r="A119" s="2"/>
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-struuture/double-linked-list/map/double-linked-list.xlsx
+++ b/data-struuture/double-linked-list/map/double-linked-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12540"/>
+    <workbookView windowWidth="19335" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -41,7 +48,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,9 +69,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -72,37 +78,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,9 +94,25 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,14 +133,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,16 +175,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,7 +191,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,13 +227,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,61 +293,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,13 +323,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,73 +359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,80 +382,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -483,6 +403,80 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -496,10 +490,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -508,144 +502,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5363,16 +5354,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>70</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp>
       <xdr:nvCxnSpPr>
@@ -5381,7 +5372,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="1304925" y="12096750"/>
+          <a:off x="3019425" y="12087225"/>
           <a:ext cx="1581150" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -5410,16 +5401,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>67945</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5428,7 +5419,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2085975" y="12734925"/>
+          <a:off x="1752600" y="13220700"/>
           <a:ext cx="1514475" cy="363220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5472,6 +5463,648 @@
             <a:t>temp</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85090</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="圆角矩形标注 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4619625" y="17478375"/>
+          <a:ext cx="2323465" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 11271"/>
+            <a:gd name="adj2" fmla="val -65919"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>待修改节点，节点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ID = 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>修改节点的数据</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="直接箭头连接符 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3086100" y="17164050"/>
+          <a:ext cx="1581150" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="文本框 55"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="18326100"/>
+          <a:ext cx="1514475" cy="363220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>临时指针 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>temp</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直接箭头连接符 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4343400" y="6991350"/>
+          <a:ext cx="914400" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>237490</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="圆角矩形标注 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8201025" y="12382500"/>
+          <a:ext cx="2323465" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -44069"/>
+            <a:gd name="adj2" fmla="val -68105"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>待删除节点，节点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>ID = 5.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>也就是它就是最后一个节点</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>待删除节点的前一个节点的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>next</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>指向待删除节点的下一个节点</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5770,7 +6403,7 @@
   <dimension ref="A2:Q119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="O75" sqref="O75"/>
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6764,1163 +7397,1163 @@
       <c r="Q56" s="1"/>
     </row>
     <row r="58" spans="1:17">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
     </row>
     <row r="60" spans="1:17">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
     </row>
     <row r="61" spans="1:17">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
     </row>
     <row r="62" spans="1:17">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
     </row>
     <row r="63" spans="1:17">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="1:17">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
     </row>
     <row r="65" spans="1:17">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
     </row>
     <row r="66" spans="1:17">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
     </row>
     <row r="67" spans="1:17">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
     </row>
     <row r="68" spans="1:17">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
     </row>
     <row r="69" spans="1:17">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
     </row>
     <row r="70" spans="1:17">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
     </row>
     <row r="71" spans="1:17">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
     </row>
     <row r="72" spans="1:17">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
     </row>
     <row r="73" spans="1:17">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
     </row>
     <row r="74" spans="1:17">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
     </row>
     <row r="75" spans="1:17">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
+      <c r="A75" s="1"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
     </row>
     <row r="76" spans="1:17">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
     </row>
     <row r="77" spans="1:17">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
     </row>
     <row r="78" spans="1:17">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
     </row>
     <row r="79" spans="1:17">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
+      <c r="A79" s="1"/>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
     </row>
     <row r="80" spans="1:17">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
     </row>
     <row r="81" spans="1:17">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
+      <c r="A81" s="1"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
     </row>
     <row r="82" spans="1:17">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
     </row>
     <row r="83" spans="1:17">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
     </row>
     <row r="84" spans="1:17">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
     </row>
     <row r="85" spans="1:17">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
+      <c r="A85" s="1"/>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
     </row>
     <row r="86" spans="1:17">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
     </row>
     <row r="88" spans="1:17">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
     </row>
     <row r="89" spans="1:17">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
     </row>
     <row r="90" spans="1:17">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
     </row>
     <row r="91" spans="1:17">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
+      <c r="A91" s="1"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
     </row>
     <row r="92" spans="1:17">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
     </row>
     <row r="93" spans="1:17">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
     </row>
     <row r="94" spans="1:17">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
     </row>
     <row r="95" spans="1:17">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
+      <c r="A95" s="1"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
     </row>
     <row r="96" spans="1:17">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
     </row>
     <row r="97" spans="1:17">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="1"/>
+      <c r="Q97" s="1"/>
     </row>
     <row r="98" spans="1:17">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="1"/>
+      <c r="Q98" s="1"/>
     </row>
     <row r="99" spans="1:17">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="1"/>
+      <c r="Q99" s="1"/>
     </row>
     <row r="100" spans="1:17">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="1"/>
+      <c r="Q100" s="1"/>
     </row>
     <row r="101" spans="1:17">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
+      <c r="A101" s="1"/>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="1"/>
+      <c r="Q101" s="1"/>
     </row>
     <row r="102" spans="1:17">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="1"/>
+      <c r="Q102" s="1"/>
     </row>
     <row r="103" spans="1:17">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
+      <c r="A103" s="1"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1"/>
+      <c r="Q103" s="1"/>
     </row>
     <row r="104" spans="1:17">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="1"/>
+      <c r="Q104" s="1"/>
     </row>
     <row r="105" spans="1:17">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1"/>
+      <c r="P105" s="1"/>
+      <c r="Q105" s="1"/>
     </row>
     <row r="106" spans="1:17">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1"/>
+      <c r="Q106" s="1"/>
     </row>
     <row r="107" spans="1:17">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1"/>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
     </row>
     <row r="108" spans="1:17">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1"/>
+      <c r="P108" s="1"/>
+      <c r="Q108" s="1"/>
     </row>
     <row r="109" spans="1:17">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1"/>
+      <c r="P109" s="1"/>
+      <c r="Q109" s="1"/>
     </row>
     <row r="110" spans="1:17">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1"/>
+      <c r="P110" s="1"/>
+      <c r="Q110" s="1"/>
     </row>
     <row r="111" spans="1:17">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
     </row>
     <row r="112" spans="1:17">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
+      <c r="Q112" s="1"/>
     </row>
     <row r="113" spans="1:17">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1"/>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1"/>
+      <c r="P113" s="1"/>
+      <c r="Q113" s="1"/>
     </row>
     <row r="114" spans="1:17">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1"/>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1"/>
+      <c r="P114" s="1"/>
+      <c r="Q114" s="1"/>
     </row>
     <row r="115" spans="1:17">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-      <c r="Q115" s="2"/>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+      <c r="K115" s="1"/>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1"/>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1"/>
+      <c r="Q115" s="1"/>
     </row>
     <row r="116" spans="1:17">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="2"/>
+      <c r="A116" s="1"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
     </row>
     <row r="117" spans="1:17">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="2"/>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1"/>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
     </row>
     <row r="118" spans="1:17">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
-      <c r="Q118" s="2"/>
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
     </row>
     <row r="119" spans="1:17">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-      <c r="P119" s="2"/>
-      <c r="Q119" s="2"/>
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-struuture/double-linked-list/map/double-linked-list.xlsx
+++ b/data-struuture/double-linked-list/map/double-linked-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19335" windowHeight="7515"/>
+    <workbookView windowWidth="24345" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,13 +33,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -48,7 +41,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -69,6 +62,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -76,9 +93,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,25 +118,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -133,30 +141,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,13 +171,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,7 +191,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +245,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,7 +305,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,85 +353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,60 +375,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -382,6 +382,80 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -403,80 +477,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -490,10 +490,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -502,133 +502,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6110,6 +6110,2443 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="矩形 58"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="20907375"/>
+          <a:ext cx="1438275" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>head</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>prev = null</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>next</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="矩形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="20916900"/>
+          <a:ext cx="1438275" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>prev</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>next</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="矩形 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4600575" y="20897850"/>
+          <a:ext cx="1438275" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>prev</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>next</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="矩形 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6896100" y="20945475"/>
+          <a:ext cx="1438275" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>prev</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>[next = null]</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:sym typeface="+mn-ea"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>next </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="肘形连接符 62"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1066800" y="21059775"/>
+          <a:ext cx="1685925" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50019"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28257</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>94297</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>237807</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>160972</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="肘形连接符 63"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="4128135" y="20167600"/>
+          <a:ext cx="923925" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="肘形连接符 64"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5553075" y="21107400"/>
+          <a:ext cx="1790700" cy="1381125"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50035"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="肘形连接符 65"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="5572125" y="21097875"/>
+          <a:ext cx="1447800" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49956"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>570230</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>140335</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="67" name="肘形连接符 66"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3224530" y="20290790"/>
+          <a:ext cx="855345" cy="677545"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50037"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>399415</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>142240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>675640</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>94615</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="肘形连接符 67"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1085215" y="21059140"/>
+          <a:ext cx="1647825" cy="981075"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49981"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="直接箭头连接符 69"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2028825" y="22650450"/>
+          <a:ext cx="695325" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>96520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="文本框 70"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="21000000">
+          <a:off x="600075" y="23393400"/>
+          <a:ext cx="1514475" cy="363220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>临时指针 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>temp</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="矩形 71"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8972550" y="22621875"/>
+          <a:ext cx="1371600" cy="1809750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>prev</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>next = null</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="73" name="曲线连接符 72"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7848600" y="22783800"/>
+          <a:ext cx="1466850" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50043"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>256222</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>113982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>227647</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>56832</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="曲线连接符 73"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="7556500" y="21444585"/>
+          <a:ext cx="2514600" cy="2028825"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 79482"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent3"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="矩形 74"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3400425" y="23098125"/>
+          <a:ext cx="1504950" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent5">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>prev</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:sym typeface="+mn-ea"/>
+            </a:rPr>
+            <a:t>next</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="肘形连接符 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="75" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3181350" y="22450425"/>
+          <a:ext cx="971550" cy="647700"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="thickThin">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>427672</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>18097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>637222</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>160972</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="肘形连接符 76"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3975100" y="23215600"/>
+          <a:ext cx="2028825" cy="895350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="thickThin">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>237807</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>65087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314007</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>65722</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="肘形连接符 77"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4218305" y="22143720"/>
+          <a:ext cx="1029335" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="thickThin">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>233045</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523240</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="肘形连接符 78"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="60" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="2697480" y="22929215"/>
+          <a:ext cx="1533525" cy="975995"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 49979"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="28575" cmpd="thickThin">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="椭圆 79"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2828925" y="23450550"/>
+          <a:ext cx="257175" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="椭圆 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4305300" y="22193250"/>
+          <a:ext cx="257175" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="椭圆 81"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="22117050"/>
+          <a:ext cx="257175" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="椭圆 82"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5362575" y="23593425"/>
+          <a:ext cx="257175" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="zh-CN">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+            </a:defRPr>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="矩形 84"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="24164925"/>
+          <a:ext cx="2533650" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent2">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>temp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>指针的下一个节点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>temp-&gt;next = 3</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>和待插入节点 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>data = 2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>比较</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>temp-&gt;next-&gt;id &gt; data-&gt;id </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>说明可以插入，待插入节点就在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>temp </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>和 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>temp-&gt;next </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>之间</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6400,10 +8837,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:Q119"/>
+  <dimension ref="A2:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8554,6 +10991,614 @@
       <c r="O119" s="1"/>
       <c r="P119" s="1"/>
       <c r="Q119" s="1"/>
+    </row>
+    <row r="120" spans="1:17">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+    </row>
+    <row r="121" spans="1:17">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+    </row>
+    <row r="122" spans="1:17">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+      <c r="O122" s="1"/>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+    </row>
+    <row r="123" spans="1:17">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+    </row>
+    <row r="124" spans="1:17">
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1"/>
+      <c r="P124" s="1"/>
+      <c r="Q124" s="1"/>
+    </row>
+    <row r="125" spans="1:17">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1"/>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1"/>
+      <c r="P125" s="1"/>
+      <c r="Q125" s="1"/>
+    </row>
+    <row r="126" spans="1:17">
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1"/>
+      <c r="P126" s="1"/>
+      <c r="Q126" s="1"/>
+    </row>
+    <row r="127" spans="1:17">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1"/>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1"/>
+      <c r="P127" s="1"/>
+      <c r="Q127" s="1"/>
+    </row>
+    <row r="128" spans="1:17">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1"/>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1"/>
+      <c r="P128" s="1"/>
+      <c r="Q128" s="1"/>
+    </row>
+    <row r="129" spans="1:17">
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+    </row>
+    <row r="130" spans="1:17">
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1"/>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1"/>
+      <c r="P130" s="1"/>
+      <c r="Q130" s="1"/>
+    </row>
+    <row r="131" spans="1:17">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1"/>
+      <c r="P131" s="1"/>
+      <c r="Q131" s="1"/>
+    </row>
+    <row r="132" spans="1:17">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+    </row>
+    <row r="133" spans="1:17">
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="F133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+      <c r="M133" s="1"/>
+      <c r="N133" s="1"/>
+      <c r="O133" s="1"/>
+      <c r="P133" s="1"/>
+      <c r="Q133" s="1"/>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="F134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+    </row>
+    <row r="138" spans="1:17">
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+    </row>
+    <row r="139" spans="1:17">
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="F139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1"/>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1"/>
+      <c r="P139" s="1"/>
+      <c r="Q139" s="1"/>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1"/>
+      <c r="P140" s="1"/>
+      <c r="Q140" s="1"/>
+    </row>
+    <row r="141" spans="1:17">
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+    </row>
+    <row r="142" spans="1:17">
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+    </row>
+    <row r="143" spans="1:17">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+      <c r="J143" s="1"/>
+      <c r="K143" s="1"/>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1"/>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1"/>
+      <c r="P143" s="1"/>
+      <c r="Q143" s="1"/>
+    </row>
+    <row r="144" spans="1:17">
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+      <c r="J144" s="1"/>
+      <c r="K144" s="1"/>
+      <c r="L144" s="1"/>
+      <c r="M144" s="1"/>
+      <c r="N144" s="1"/>
+      <c r="O144" s="1"/>
+      <c r="P144" s="1"/>
+      <c r="Q144" s="1"/>
+    </row>
+    <row r="145" spans="1:17">
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+      <c r="J145" s="1"/>
+      <c r="K145" s="1"/>
+      <c r="L145" s="1"/>
+      <c r="M145" s="1"/>
+      <c r="N145" s="1"/>
+      <c r="O145" s="1"/>
+      <c r="P145" s="1"/>
+      <c r="Q145" s="1"/>
+    </row>
+    <row r="146" spans="1:17">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+    </row>
+    <row r="147" spans="1:17">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+      <c r="J147" s="1"/>
+      <c r="K147" s="1"/>
+      <c r="L147" s="1"/>
+      <c r="M147" s="1"/>
+      <c r="N147" s="1"/>
+      <c r="O147" s="1"/>
+      <c r="P147" s="1"/>
+      <c r="Q147" s="1"/>
+    </row>
+    <row r="148" spans="1:17">
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+      <c r="O148" s="1"/>
+      <c r="P148" s="1"/>
+      <c r="Q148" s="1"/>
+    </row>
+    <row r="149" spans="1:17">
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+    </row>
+    <row r="150" spans="1:17">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+      <c r="O150" s="1"/>
+      <c r="P150" s="1"/>
+      <c r="Q150" s="1"/>
+    </row>
+    <row r="151" spans="1:17">
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+      <c r="J151" s="1"/>
+      <c r="K151" s="1"/>
+      <c r="L151" s="1"/>
+      <c r="M151" s="1"/>
+      <c r="N151" s="1"/>
+      <c r="O151" s="1"/>
+      <c r="P151" s="1"/>
+      <c r="Q151" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data-struuture/double-linked-list/map/double-linked-list.xlsx
+++ b/data-struuture/double-linked-list/map/double-linked-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12540"/>
+    <workbookView windowWidth="19335" windowHeight="7515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -33,7 +33,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -62,30 +62,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -94,7 +70,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,7 +85,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,9 +101,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -140,8 +131,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,7 +163,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,7 +191,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +203,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,7 +275,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,145 +365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,17 +409,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -439,13 +444,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,15 +482,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -490,10 +490,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -502,133 +502,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -8547,6 +8547,99 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="矩形 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1266825" y="24022050"/>
+          <a:ext cx="2028825" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>1.$temp-&gt;next = $data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>2. $data-&gt;next = $temp-&gt;next</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>3.$temp-&gt;next-&gt;prev = $data</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>4.$data-&gt;prev = $temp</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8839,8 +8932,8 @@
   <sheetPr/>
   <dimension ref="A2:Q151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="H120" sqref="H120"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="P138" sqref="P138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
